--- a/biology/Zoologie/Épervier_shikra/Épervier_shikra.xlsx
+++ b/biology/Zoologie/Épervier_shikra/Épervier_shikra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pervier_shikra</t>
+          <t>Épervier_shikra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Accipiter badius
 L'Épervier shikra (Accipiter badius) est une espèce d'oiseaux appartenant à la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pervier_shikra</t>
+          <t>Épervier_shikra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épervier shikra a une longueur de la tête à la queue de 25 à 35 cm[1]. Il est gris. Sa queue est longue et ses ailes sont courtes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épervier shikra a une longueur de la tête à la queue de 25 à 35 cm. Il est gris. Sa queue est longue et ses ailes sont courtes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pervier_shikra</t>
+          <t>Épervier_shikra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Répartition et migration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique subsaharienne et en Asie du Sud et plus particulièrement en Inde.
-Entre septembre et octobre, l'Épervier shikra migre dans une zone qui se situe entre l'Iran et l'Inde et ne la quitte qu'en avril-mai pour retourner dans les lieux de nidification. En hiver, il est aussi possible de l'observer au sud de la mer Caspienne, ce qui voudrait dire que certains adultes ne migrent pas[2].
+Entre septembre et octobre, l'Épervier shikra migre dans une zone qui se situe entre l'Iran et l'Inde et ne la quitte qu'en avril-mai pour retourner dans les lieux de nidification. En hiver, il est aussi possible de l'observer au sud de la mer Caspienne, ce qui voudrait dire que certains adultes ne migrent pas.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pervier_shikra</t>
+          <t>Épervier_shikra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Habitat et nourriture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rapace diurne niche dans les steppes, dans les savanes, au bord des déserts et dans les oasis. Mais on peut le voir aussi dans des champs, dans des bosquets proches des fermes.
-Il mange surtout des reptiles, de gros insectes et des oiseaux mais on peut aussi le voir avec des petits mammifères, des amphibiens et des chauves-souris dans le bec[2].
+Il mange surtout des reptiles, de gros insectes et des oiseaux mais on peut aussi le voir avec des petits mammifères, des amphibiens et des chauves-souris dans le bec.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pervier_shikra</t>
+          <t>Épervier_shikra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des six sous-espèces suivantes :
 Accipiter badius badius (Gmelin) 1788 ;
